--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.180339890082836</v>
+        <v>0.1835656965344488</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.18033989008283596, 'ngram_match_score': 0.059847308794234354, 'weighted_ngram_match_score': 0.1066586420608374, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.14838709677419354}</t>
+          <t>{'codebleu': 0.18356569653444885, 'ngram_match_score': 0.059847308794234354, 'weighted_ngram_match_score': 0.1066586420608374, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.16129032258064516}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1835656965344488</v>
+        <v>0.1892108578247714</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.18356569653444885, 'ngram_match_score': 0.059847308794234354, 'weighted_ngram_match_score': 0.1066586420608374, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.16129032258064516}</t>
+          <t>{'codebleu': 0.18921085782477143, 'ngram_match_score': 0.059847308794234354, 'weighted_ngram_match_score': 0.1066586420608374, 'syntax_match_score': 0.4064665127020785, 'dataflow_match_score': 0.18387096774193548}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
